--- a/Civilworks cost/Expenditure_2017_18/Input Output/output.xlsx
+++ b/Civilworks cost/Expenditure_2017_18/Input Output/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -5825,8 +5825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView topLeftCell="C67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10139,7 +10139,10 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O74" s="2"/>
+      <c r="O74" s="2">
+        <f>SUM(O2:O73)</f>
+        <v>654203965.91999984</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47063,7 +47066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
